--- a/FarmSys/Document_nhom1/PhanChiaCongViec_Nhom1.xlsx
+++ b/FarmSys/Document_nhom1/PhanChiaCongViec_Nhom1.xlsx
@@ -1,18 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Netbeans\Github\Duan1\FarmSys\Document_nhom1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB3086-7DD9-467C-BD87-1B475EA72B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Nhóm" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Triều" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Tri" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Trung" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Dũng" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Tuấn" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Hải" sheetId="7" r:id="rId10"/>
+    <sheet name="Nhóm" sheetId="1" r:id="rId1"/>
+    <sheet name="Triều" sheetId="2" r:id="rId2"/>
+    <sheet name="Tri" sheetId="3" r:id="rId3"/>
+    <sheet name="Trung" sheetId="4" r:id="rId4"/>
+    <sheet name="Dũng" sheetId="5" r:id="rId5"/>
+    <sheet name="Tuấn" sheetId="6" r:id="rId6"/>
+    <sheet name="Hải" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -346,72 +366,89 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="0"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FFFFFF00"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -419,7 +456,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -441,7 +478,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -455,6 +498,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -463,19 +507,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -485,236 +535,200 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="64">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="165" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -904,24 +918,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="54.86"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,9 +958,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
@@ -952,18 +969,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="8">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="E2" s="8">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
@@ -972,18 +989,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="8">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="E3" s="8">
-        <v>44505.0</v>
+        <v>44505</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>11</v>
@@ -992,18 +1009,18 @@
         <v>12</v>
       </c>
       <c r="D4" s="8">
-        <v>44508.0</v>
+        <v>44508</v>
       </c>
       <c r="E4" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>13</v>
@@ -1012,18 +1029,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="9">
-        <v>44508.0</v>
+        <v>44508</v>
       </c>
       <c r="E5" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
@@ -1032,18 +1049,18 @@
         <v>16</v>
       </c>
       <c r="D6" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E6" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>17</v>
@@ -1052,18 +1069,18 @@
         <v>16</v>
       </c>
       <c r="D7" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E7" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>18</v>
@@ -1072,18 +1089,18 @@
         <v>19</v>
       </c>
       <c r="D8" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E8" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>20</v>
@@ -1092,18 +1109,18 @@
         <v>21</v>
       </c>
       <c r="D9" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E9" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>22</v>
@@ -1112,18 +1129,18 @@
         <v>16</v>
       </c>
       <c r="D10" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E10" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>23</v>
@@ -1132,18 +1149,18 @@
         <v>10</v>
       </c>
       <c r="D11" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E11" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>24</v>
@@ -1152,18 +1169,18 @@
         <v>25</v>
       </c>
       <c r="D12" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E12" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>26</v>
@@ -1172,18 +1189,18 @@
         <v>12</v>
       </c>
       <c r="D13" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E13" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>27</v>
@@ -1192,18 +1209,18 @@
         <v>19</v>
       </c>
       <c r="D14" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E14" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>28</v>
@@ -1212,18 +1229,18 @@
         <v>19</v>
       </c>
       <c r="D15" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E15" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>29</v>
@@ -1232,18 +1249,18 @@
         <v>19</v>
       </c>
       <c r="D16" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E16" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>30</v>
@@ -1252,18 +1269,18 @@
         <v>21</v>
       </c>
       <c r="D17" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E17" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>31</v>
@@ -1272,18 +1289,18 @@
         <v>32</v>
       </c>
       <c r="D18" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E18" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>33</v>
@@ -1292,18 +1309,18 @@
         <v>32</v>
       </c>
       <c r="D19" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E19" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>34</v>
@@ -1312,18 +1329,18 @@
         <v>35</v>
       </c>
       <c r="D20" s="9">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E20" s="9">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>36</v>
@@ -1332,18 +1349,18 @@
         <v>25</v>
       </c>
       <c r="D21" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E21" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>37</v>
@@ -1352,18 +1369,18 @@
         <v>10</v>
       </c>
       <c r="D22" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E22" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>38</v>
@@ -1372,18 +1389,18 @@
         <v>19</v>
       </c>
       <c r="D23" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E23" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>39</v>
@@ -1392,18 +1409,18 @@
         <v>10</v>
       </c>
       <c r="D24" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E24" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>40</v>
@@ -1412,18 +1429,18 @@
         <v>10</v>
       </c>
       <c r="D25" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E25" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>41</v>
@@ -1432,18 +1449,18 @@
         <v>25</v>
       </c>
       <c r="D26" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E26" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>42</v>
@@ -1452,18 +1469,18 @@
         <v>32</v>
       </c>
       <c r="D27" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E27" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>43</v>
@@ -1472,18 +1489,18 @@
         <v>19</v>
       </c>
       <c r="D28" s="9">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E28" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>44</v>
@@ -1492,18 +1509,18 @@
         <v>21</v>
       </c>
       <c r="D29" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E29" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>45</v>
@@ -1512,18 +1529,18 @@
         <v>16</v>
       </c>
       <c r="D30" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E30" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>46</v>
@@ -1532,18 +1549,18 @@
         <v>10</v>
       </c>
       <c r="D31" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E31" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>47</v>
@@ -1552,18 +1569,18 @@
         <v>14</v>
       </c>
       <c r="D32" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E32" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>48</v>
@@ -1572,18 +1589,18 @@
         <v>14</v>
       </c>
       <c r="D33" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E33" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F33" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>49</v>
@@ -1592,18 +1609,18 @@
         <v>32</v>
       </c>
       <c r="D34" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E34" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>50</v>
@@ -1612,18 +1629,18 @@
         <v>19</v>
       </c>
       <c r="D35" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E35" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>51</v>
@@ -1632,18 +1649,18 @@
         <v>21</v>
       </c>
       <c r="D36" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E36" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>52</v>
@@ -1652,18 +1669,18 @@
         <v>16</v>
       </c>
       <c r="D37" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E37" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>53</v>
@@ -1672,18 +1689,18 @@
         <v>14</v>
       </c>
       <c r="D38" s="9">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E38" s="9">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>54</v>
@@ -1692,18 +1709,18 @@
         <v>32</v>
       </c>
       <c r="D39" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E39" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>55</v>
@@ -1712,18 +1729,18 @@
         <v>56</v>
       </c>
       <c r="D40" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E40" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F40" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>57</v>
@@ -1732,18 +1749,18 @@
         <v>16</v>
       </c>
       <c r="D41" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E41" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>58</v>
@@ -1752,18 +1769,18 @@
         <v>10</v>
       </c>
       <c r="D42" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E42" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>59</v>
@@ -1772,18 +1789,18 @@
         <v>32</v>
       </c>
       <c r="D43" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E43" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F43" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>60</v>
@@ -1792,18 +1809,18 @@
         <v>14</v>
       </c>
       <c r="D44" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E44" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>61</v>
@@ -1812,18 +1829,18 @@
         <v>12</v>
       </c>
       <c r="D45" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E45" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>62</v>
@@ -1832,18 +1849,18 @@
         <v>14</v>
       </c>
       <c r="D46" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E46" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>63</v>
@@ -1852,18 +1869,18 @@
         <v>16</v>
       </c>
       <c r="D47" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E47" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>64</v>
@@ -1872,18 +1889,18 @@
         <v>56</v>
       </c>
       <c r="D48" s="9">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E48" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F48" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>65</v>
@@ -1892,18 +1909,18 @@
         <v>16</v>
       </c>
       <c r="D49" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E49" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F49" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>66</v>
@@ -1912,18 +1929,18 @@
         <v>16</v>
       </c>
       <c r="D50" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E50" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F50" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>67</v>
@@ -1932,18 +1949,18 @@
         <v>25</v>
       </c>
       <c r="D51" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E51" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F51" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>68</v>
@@ -1952,18 +1969,18 @@
         <v>19</v>
       </c>
       <c r="D52" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E52" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F52" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>69</v>
@@ -1972,18 +1989,18 @@
         <v>19</v>
       </c>
       <c r="D53" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E53" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>70</v>
@@ -1992,18 +2009,18 @@
         <v>56</v>
       </c>
       <c r="D54" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E54" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>71</v>
@@ -2012,18 +2029,18 @@
         <v>16</v>
       </c>
       <c r="D55" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E55" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>72</v>
@@ -2032,18 +2049,18 @@
         <v>10</v>
       </c>
       <c r="D56" s="9">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E56" s="8">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F56" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>73</v>
@@ -2052,18 +2069,18 @@
         <v>12</v>
       </c>
       <c r="D57" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E57" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F57" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>74</v>
@@ -2072,18 +2089,18 @@
         <v>25</v>
       </c>
       <c r="D58" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E58" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F58" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>75</v>
@@ -2092,18 +2109,18 @@
         <v>19</v>
       </c>
       <c r="D59" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E59" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F59" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>76</v>
@@ -2112,18 +2129,18 @@
         <v>19</v>
       </c>
       <c r="D60" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E60" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F60" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>77</v>
@@ -2132,18 +2149,18 @@
         <v>21</v>
       </c>
       <c r="D61" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E61" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>78</v>
@@ -2152,18 +2169,18 @@
         <v>19</v>
       </c>
       <c r="D62" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E62" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F62" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>79</v>
@@ -2172,18 +2189,18 @@
         <v>12</v>
       </c>
       <c r="D63" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E63" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F63" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>80</v>
@@ -2192,18 +2209,18 @@
         <v>10</v>
       </c>
       <c r="D64" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E64" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F64" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>81</v>
@@ -2212,18 +2229,18 @@
         <v>16</v>
       </c>
       <c r="D65" s="8">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E65" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
         <v>82</v>
@@ -2232,18 +2249,18 @@
         <v>21</v>
       </c>
       <c r="D66" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E66" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F66" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>83</v>
@@ -2252,18 +2269,18 @@
         <v>10</v>
       </c>
       <c r="D67" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E67" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F67" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>84</v>
@@ -2272,18 +2289,18 @@
         <v>16</v>
       </c>
       <c r="D68" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E68" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F68" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>85</v>
@@ -2292,18 +2309,18 @@
         <v>10</v>
       </c>
       <c r="D69" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E69" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F69" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>86</v>
@@ -2312,18 +2329,18 @@
         <v>32</v>
       </c>
       <c r="D70" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E70" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F70" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>87</v>
@@ -2332,18 +2349,18 @@
         <v>19</v>
       </c>
       <c r="D71" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E71" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>88</v>
@@ -2352,18 +2369,18 @@
         <v>19</v>
       </c>
       <c r="D72" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E72" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F72" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>89</v>
@@ -2372,18 +2389,18 @@
         <v>12</v>
       </c>
       <c r="D73" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E73" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F73" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>90</v>
@@ -2392,18 +2409,18 @@
         <v>21</v>
       </c>
       <c r="D74" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E74" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>91</v>
@@ -2412,18 +2429,18 @@
         <v>14</v>
       </c>
       <c r="D75" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E75" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>92</v>
@@ -2432,18 +2449,18 @@
         <v>32</v>
       </c>
       <c r="D76" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E76" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F76" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>93</v>
@@ -2452,18 +2469,18 @@
         <v>56</v>
       </c>
       <c r="D77" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E77" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F77" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>94</v>
@@ -2472,18 +2489,18 @@
         <v>10</v>
       </c>
       <c r="D78" s="8">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E78" s="8">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F78" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>95</v>
@@ -2492,18 +2509,18 @@
         <v>19</v>
       </c>
       <c r="D79" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E79" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F79" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>96</v>
@@ -2512,18 +2529,18 @@
         <v>56</v>
       </c>
       <c r="D80" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E80" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F80" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>97</v>
@@ -2532,18 +2549,18 @@
         <v>10</v>
       </c>
       <c r="D81" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E81" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F81" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>98</v>
@@ -2552,18 +2569,18 @@
         <v>16</v>
       </c>
       <c r="D82" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E82" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>99</v>
@@ -2572,18 +2589,18 @@
         <v>10</v>
       </c>
       <c r="D83" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E83" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>100</v>
@@ -2592,18 +2609,18 @@
         <v>19</v>
       </c>
       <c r="D84" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E84" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
         <v>101</v>
@@ -2612,18 +2629,18 @@
         <v>21</v>
       </c>
       <c r="D85" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E85" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
         <v>102</v>
@@ -2632,18 +2649,18 @@
         <v>14</v>
       </c>
       <c r="D86" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E86" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F86" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
         <v>103</v>
@@ -2652,18 +2669,18 @@
         <v>14</v>
       </c>
       <c r="D87" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E87" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F87" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>104</v>
@@ -2672,18 +2689,18 @@
         <v>35</v>
       </c>
       <c r="D88" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E88" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F88" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>105</v>
@@ -2692,18 +2709,18 @@
         <v>10</v>
       </c>
       <c r="D89" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E89" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F89" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>106</v>
@@ -2712,18 +2729,18 @@
         <v>25</v>
       </c>
       <c r="D90" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E90" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F90" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>107</v>
@@ -2732,3684 +2749,3687 @@
         <v>21</v>
       </c>
       <c r="D91" s="8">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E91" s="9">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F91" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="12"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="12"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="13"/>
       <c r="B95" s="14"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="13"/>
       <c r="B98" s="14"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="13"/>
       <c r="B99" s="14"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="14"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="13"/>
       <c r="B101" s="14"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="14"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="14"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="14"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="13"/>
       <c r="B105" s="14"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="13"/>
       <c r="B106" s="14"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="13"/>
       <c r="B107" s="14"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="13"/>
       <c r="B108" s="14"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="13"/>
       <c r="B109" s="14"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="13"/>
       <c r="B110" s="14"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="13"/>
       <c r="B111" s="14"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="13"/>
       <c r="B112" s="14"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="13"/>
       <c r="B113" s="14"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="13"/>
       <c r="B114" s="14"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="13"/>
       <c r="B115" s="14"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="13"/>
       <c r="B116" s="14"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="14"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="13"/>
       <c r="B118" s="14"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="14"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="13"/>
       <c r="B120" s="14"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="13"/>
       <c r="B121" s="14"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="13"/>
       <c r="B122" s="14"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="13"/>
       <c r="B123" s="14"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="13"/>
       <c r="B124" s="14"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="13"/>
       <c r="B125" s="14"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="13"/>
       <c r="B126" s="14"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="13"/>
       <c r="B127" s="14"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="12"/>
       <c r="B128" s="14"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="14"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="14"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="14"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="14"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="14"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="14"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="12"/>
       <c r="B135" s="14"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="12"/>
       <c r="B136" s="14"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="12"/>
       <c r="B137" s="14"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="12"/>
       <c r="B138" s="14"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="12"/>
       <c r="B139" s="14"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="12"/>
       <c r="B140" s="14"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="12"/>
       <c r="B141" s="14"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="12"/>
       <c r="B142" s="14"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="12"/>
       <c r="B143" s="14"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="12"/>
       <c r="B144" s="14"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="12"/>
       <c r="B145" s="14"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="12"/>
       <c r="B146" s="14"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="12"/>
       <c r="B147" s="14"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="12"/>
       <c r="B148" s="14"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="12"/>
       <c r="B149" s="14"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="12"/>
       <c r="B150" s="14"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="12"/>
       <c r="B151" s="14"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="12"/>
       <c r="B152" s="14"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="12"/>
       <c r="B153" s="14"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="14"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="12"/>
       <c r="B155" s="14"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="12"/>
       <c r="B156" s="14"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="14"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="12"/>
       <c r="B158" s="14"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="12"/>
       <c r="B159" s="14"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="12"/>
       <c r="B160" s="14"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="12"/>
       <c r="B161" s="14"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="12"/>
       <c r="B162" s="14"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="12"/>
       <c r="B163" s="14"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="12"/>
       <c r="B164" s="14"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="12"/>
       <c r="B165" s="14"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="12"/>
       <c r="B166" s="14"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="12"/>
       <c r="B167" s="14"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="12"/>
       <c r="B168" s="14"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="14"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="12"/>
       <c r="B170" s="14"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="12"/>
       <c r="B171" s="14"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="12"/>
       <c r="B172" s="14"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="12"/>
       <c r="B173" s="14"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="12"/>
       <c r="B174" s="14"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="12"/>
       <c r="B175" s="14"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="12"/>
       <c r="B176" s="14"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="12"/>
       <c r="B177" s="14"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="12"/>
       <c r="B178" s="14"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="12"/>
       <c r="B179" s="14"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="12"/>
       <c r="B180" s="14"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="12"/>
       <c r="B181" s="14"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="14"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="14"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="14"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="14"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="12"/>
       <c r="B186" s="14"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="14"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="14"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="14"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="12"/>
       <c r="B190" s="14"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="12"/>
       <c r="B191" s="14"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="12"/>
       <c r="B192" s="14"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="12"/>
       <c r="B193" s="14"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="12"/>
       <c r="B194" s="14"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="14"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="12"/>
       <c r="B196" s="14"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="12"/>
       <c r="B197" s="14"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="12"/>
       <c r="B198" s="14"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="12"/>
       <c r="B199" s="14"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="12"/>
       <c r="B200" s="14"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="12"/>
       <c r="B201" s="14"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="12"/>
       <c r="B202" s="14"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="12"/>
       <c r="B203" s="14"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="14"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="12"/>
       <c r="B205" s="14"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="12"/>
       <c r="B206" s="14"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="12"/>
       <c r="B207" s="14"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="12"/>
       <c r="B208" s="14"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="12"/>
       <c r="B209" s="14"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="14"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="14"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="12"/>
       <c r="B212" s="14"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="12"/>
       <c r="B213" s="14"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="12"/>
       <c r="B214" s="14"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="12"/>
       <c r="B215" s="14"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="12"/>
       <c r="B216" s="14"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="12"/>
       <c r="B217" s="14"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="12"/>
       <c r="B218" s="14"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="12"/>
       <c r="B219" s="14"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="12"/>
       <c r="B220" s="14"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="12"/>
       <c r="B221" s="14"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="12"/>
       <c r="B222" s="14"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="12"/>
       <c r="B223" s="14"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="12"/>
       <c r="B224" s="14"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="12"/>
       <c r="B225" s="14"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="12"/>
       <c r="B226" s="14"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="12"/>
       <c r="B227" s="14"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="12"/>
       <c r="B228" s="14"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="14"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="12"/>
       <c r="B230" s="14"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="12"/>
       <c r="B231" s="14"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="12"/>
       <c r="B232" s="14"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="12"/>
       <c r="B233" s="14"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="12"/>
       <c r="B234" s="14"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="12"/>
       <c r="B235" s="14"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="12"/>
       <c r="B236" s="14"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="12"/>
       <c r="B237" s="14"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="12"/>
       <c r="B238" s="14"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="12"/>
       <c r="B239" s="14"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="12"/>
       <c r="B240" s="14"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="12"/>
       <c r="B241" s="14"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="12"/>
       <c r="B242" s="14"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="12"/>
       <c r="B243" s="14"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="14"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="14"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="12"/>
       <c r="B246" s="14"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="12"/>
       <c r="B247" s="14"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="12"/>
       <c r="B248" s="14"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="12"/>
       <c r="B249" s="14"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="12"/>
       <c r="B250" s="14"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="12"/>
       <c r="B251" s="14"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="12"/>
       <c r="B252" s="14"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="12"/>
       <c r="B253" s="14"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="12"/>
       <c r="B254" s="14"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="12"/>
       <c r="B255" s="14"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="12"/>
       <c r="B256" s="14"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="14"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="12"/>
       <c r="B258" s="14"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="12"/>
       <c r="B259" s="14"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="12"/>
       <c r="B260" s="14"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="12"/>
       <c r="B261" s="14"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="14"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="12"/>
       <c r="B263" s="14"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="12"/>
       <c r="B264" s="14"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="12"/>
       <c r="B265" s="14"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="12"/>
       <c r="B266" s="14"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="12"/>
       <c r="B267" s="14"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="12"/>
       <c r="B268" s="14"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="12"/>
       <c r="B269" s="14"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="12"/>
       <c r="B270" s="14"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="12"/>
       <c r="B271" s="14"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="12"/>
       <c r="B272" s="14"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="12"/>
       <c r="B273" s="14"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="12"/>
       <c r="B274" s="14"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="12"/>
       <c r="B275" s="14"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="12"/>
       <c r="B276" s="14"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="12"/>
       <c r="B277" s="14"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="12"/>
       <c r="B278" s="14"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="12"/>
       <c r="B279" s="14"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="12"/>
       <c r="B280" s="14"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="12"/>
       <c r="B281" s="14"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="12"/>
       <c r="B282" s="14"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="12"/>
       <c r="B283" s="14"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="12"/>
       <c r="B284" s="14"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="12"/>
       <c r="B285" s="14"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="12"/>
       <c r="B286" s="14"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="12"/>
       <c r="B287" s="14"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="12"/>
       <c r="B288" s="14"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="12"/>
       <c r="B289" s="14"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="12"/>
       <c r="B290" s="14"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="12"/>
       <c r="B291" s="14"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="12"/>
       <c r="B292" s="14"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="12"/>
       <c r="B293" s="14"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="12"/>
       <c r="B294" s="14"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="12"/>
       <c r="B295" s="14"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="12"/>
       <c r="B296" s="14"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="12"/>
       <c r="B297" s="14"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="12"/>
       <c r="B298" s="14"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="12"/>
       <c r="B299" s="14"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="12"/>
       <c r="B300" s="14"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="12"/>
       <c r="B301" s="14"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="12"/>
       <c r="B302" s="14"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="12"/>
       <c r="B303" s="14"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="12"/>
       <c r="B304" s="14"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="12"/>
       <c r="B305" s="14"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="12"/>
       <c r="B306" s="14"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="12"/>
       <c r="B307" s="14"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
       <c r="B308" s="14"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="12"/>
       <c r="B309" s="14"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="12"/>
       <c r="B310" s="14"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="12"/>
       <c r="B311" s="14"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="12"/>
       <c r="B312" s="14"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="12"/>
       <c r="B313" s="14"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="12"/>
       <c r="B314" s="14"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="12"/>
       <c r="B315" s="14"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="12"/>
       <c r="B316" s="14"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="12"/>
       <c r="B317" s="14"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="12"/>
       <c r="B318" s="14"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="12"/>
       <c r="B319" s="14"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="12"/>
       <c r="B320" s="14"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="12"/>
       <c r="B321" s="14"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="12"/>
       <c r="B322" s="14"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="12"/>
       <c r="B323" s="14"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="12"/>
       <c r="B324" s="14"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="12"/>
       <c r="B325" s="14"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="12"/>
       <c r="B326" s="14"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="12"/>
       <c r="B327" s="14"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="12"/>
       <c r="B328" s="14"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="12"/>
       <c r="B329" s="14"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="12"/>
       <c r="B330" s="14"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="12"/>
       <c r="B331" s="14"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="12"/>
       <c r="B332" s="14"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="12"/>
       <c r="B333" s="14"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="12"/>
       <c r="B334" s="14"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="12"/>
       <c r="B335" s="14"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="12"/>
       <c r="B336" s="14"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="12"/>
       <c r="B337" s="14"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="12"/>
       <c r="B338" s="14"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="12"/>
       <c r="B339" s="14"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="12"/>
       <c r="B340" s="14"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="12"/>
       <c r="B341" s="14"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="12"/>
       <c r="B342" s="14"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="12"/>
       <c r="B343" s="14"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="12"/>
       <c r="B344" s="14"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="12"/>
       <c r="B345" s="14"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="12"/>
       <c r="B346" s="14"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="12"/>
       <c r="B347" s="14"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="12"/>
       <c r="B348" s="14"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="12"/>
       <c r="B349" s="14"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="12"/>
       <c r="B350" s="14"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="12"/>
       <c r="B351" s="14"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="12"/>
       <c r="B352" s="14"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="12"/>
       <c r="B353" s="14"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="12"/>
       <c r="B354" s="14"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="12"/>
       <c r="B355" s="14"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="12"/>
       <c r="B356" s="14"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="12"/>
       <c r="B357" s="14"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="12"/>
       <c r="B358" s="14"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="12"/>
       <c r="B359" s="14"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="12"/>
       <c r="B360" s="14"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="12"/>
       <c r="B361" s="14"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="12"/>
       <c r="B362" s="14"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="12"/>
       <c r="B363" s="14"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="12"/>
       <c r="B364" s="14"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="12"/>
       <c r="B365" s="14"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="12"/>
       <c r="B366" s="14"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="12"/>
       <c r="B367" s="14"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="12"/>
       <c r="B368" s="14"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="12"/>
       <c r="B369" s="14"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="12"/>
       <c r="B370" s="14"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="12"/>
       <c r="B371" s="14"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="12"/>
       <c r="B372" s="14"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="12"/>
       <c r="B373" s="14"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="12"/>
       <c r="B374" s="14"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="12"/>
       <c r="B375" s="14"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="12"/>
       <c r="B376" s="14"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="12"/>
       <c r="B377" s="14"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="12"/>
       <c r="B378" s="14"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="12"/>
       <c r="B379" s="14"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="12"/>
       <c r="B380" s="14"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="12"/>
       <c r="B381" s="14"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="12"/>
       <c r="B382" s="14"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="12"/>
       <c r="B383" s="14"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="12"/>
       <c r="B384" s="14"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="12"/>
       <c r="B385" s="14"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="12"/>
       <c r="B386" s="14"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="12"/>
       <c r="B387" s="14"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="12"/>
       <c r="B388" s="14"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="12"/>
       <c r="B389" s="14"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="12"/>
       <c r="B390" s="14"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="12"/>
       <c r="B391" s="14"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="12"/>
       <c r="B392" s="14"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="12"/>
       <c r="B393" s="14"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="12"/>
       <c r="B394" s="14"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="12"/>
       <c r="B395" s="14"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="12"/>
       <c r="B396" s="14"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="12"/>
       <c r="B397" s="14"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="12"/>
       <c r="B398" s="14"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="12"/>
       <c r="B399" s="14"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="12"/>
       <c r="B400" s="14"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="12"/>
       <c r="B401" s="14"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="12"/>
       <c r="B402" s="14"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="12"/>
       <c r="B403" s="14"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="12"/>
       <c r="B404" s="14"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="12"/>
       <c r="B405" s="14"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="12"/>
       <c r="B406" s="14"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="12"/>
       <c r="B407" s="14"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="12"/>
       <c r="B408" s="14"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="12"/>
       <c r="B409" s="14"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="12"/>
       <c r="B410" s="14"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="12"/>
       <c r="B411" s="14"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="12"/>
       <c r="B412" s="14"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="12"/>
       <c r="B413" s="14"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="12"/>
       <c r="B414" s="14"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="12"/>
       <c r="B415" s="14"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="12"/>
       <c r="B416" s="14"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="12"/>
       <c r="B417" s="14"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="12"/>
       <c r="B418" s="14"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="12"/>
       <c r="B419" s="14"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="12"/>
       <c r="B420" s="14"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="12"/>
       <c r="B421" s="14"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="12"/>
       <c r="B422" s="14"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="12"/>
       <c r="B423" s="14"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="12"/>
       <c r="B424" s="14"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="12"/>
       <c r="B425" s="14"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="12"/>
       <c r="B426" s="14"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="12"/>
       <c r="B427" s="14"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="12"/>
       <c r="B428" s="14"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="12"/>
       <c r="B429" s="14"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="12"/>
       <c r="B430" s="14"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="12"/>
       <c r="B431" s="14"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="12"/>
       <c r="B432" s="14"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="12"/>
       <c r="B433" s="14"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="12"/>
       <c r="B434" s="14"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="12"/>
       <c r="B435" s="14"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="12"/>
       <c r="B436" s="14"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="12"/>
       <c r="B437" s="14"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="12"/>
       <c r="B438" s="14"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="12"/>
       <c r="B439" s="14"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="12"/>
       <c r="B440" s="14"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="12"/>
       <c r="B441" s="14"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="12"/>
       <c r="B442" s="14"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="12"/>
       <c r="B443" s="14"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="12"/>
       <c r="B444" s="14"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="12"/>
       <c r="B445" s="14"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="12"/>
       <c r="B446" s="14"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="12"/>
       <c r="B447" s="14"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="12"/>
       <c r="B448" s="14"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="12"/>
       <c r="B449" s="14"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="12"/>
       <c r="B450" s="14"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="12"/>
       <c r="B451" s="14"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="12"/>
       <c r="B452" s="14"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="12"/>
       <c r="B453" s="14"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="12"/>
       <c r="B454" s="14"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="12"/>
       <c r="B455" s="14"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="12"/>
       <c r="B456" s="14"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="12"/>
       <c r="B457" s="14"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="12"/>
       <c r="B458" s="14"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="12"/>
       <c r="B459" s="14"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="12"/>
       <c r="B460" s="14"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="12"/>
       <c r="B461" s="14"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="12"/>
       <c r="B462" s="14"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="12"/>
       <c r="B463" s="14"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="12"/>
       <c r="B464" s="14"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="12"/>
       <c r="B465" s="14"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="12"/>
       <c r="B466" s="14"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="12"/>
       <c r="B467" s="14"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="12"/>
       <c r="B468" s="14"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="12"/>
       <c r="B469" s="14"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="12"/>
       <c r="B470" s="14"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="12"/>
       <c r="B471" s="14"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="12"/>
       <c r="B472" s="14"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="12"/>
       <c r="B473" s="14"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="12"/>
       <c r="B474" s="14"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="12"/>
       <c r="B475" s="14"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="12"/>
       <c r="B476" s="14"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="12"/>
       <c r="B477" s="14"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="12"/>
       <c r="B478" s="14"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="12"/>
       <c r="B479" s="14"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="12"/>
       <c r="B480" s="14"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="12"/>
       <c r="B481" s="14"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="12"/>
       <c r="B482" s="14"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="12"/>
       <c r="B483" s="14"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="12"/>
       <c r="B484" s="14"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="12"/>
       <c r="B485" s="14"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="12"/>
       <c r="B486" s="14"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="12"/>
       <c r="B487" s="14"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="12"/>
       <c r="B488" s="14"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="12"/>
       <c r="B489" s="14"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="12"/>
       <c r="B490" s="14"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="12"/>
       <c r="B491" s="14"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="12"/>
       <c r="B492" s="14"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="12"/>
       <c r="B493" s="14"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="12"/>
       <c r="B494" s="14"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="12"/>
       <c r="B495" s="14"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="12"/>
       <c r="B496" s="14"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="12"/>
       <c r="B497" s="14"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="12"/>
       <c r="B498" s="14"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="12"/>
       <c r="B499" s="14"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="12"/>
       <c r="B500" s="14"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="12"/>
       <c r="B501" s="14"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="12"/>
       <c r="B502" s="14"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="12"/>
       <c r="B503" s="14"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="12"/>
       <c r="B504" s="14"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="12"/>
       <c r="B505" s="14"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="12"/>
       <c r="B506" s="14"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="12"/>
       <c r="B507" s="14"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="12"/>
       <c r="B508" s="14"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="12"/>
       <c r="B509" s="14"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="12"/>
       <c r="B510" s="14"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="12"/>
       <c r="B511" s="14"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="12"/>
       <c r="B512" s="14"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="12"/>
       <c r="B513" s="14"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="12"/>
       <c r="B514" s="14"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="12"/>
       <c r="B515" s="14"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="12"/>
       <c r="B516" s="14"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="12"/>
       <c r="B517" s="14"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="12"/>
       <c r="B518" s="14"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="12"/>
       <c r="B519" s="14"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="12"/>
       <c r="B520" s="14"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="12"/>
       <c r="B521" s="14"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="12"/>
       <c r="B522" s="14"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="12"/>
       <c r="B523" s="14"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="12"/>
       <c r="B524" s="14"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="12"/>
       <c r="B525" s="14"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="12"/>
       <c r="B526" s="14"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="12"/>
       <c r="B527" s="14"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="12"/>
       <c r="B528" s="14"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="12"/>
       <c r="B529" s="14"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="12"/>
       <c r="B530" s="14"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="12"/>
       <c r="B531" s="14"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="12"/>
       <c r="B532" s="14"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="12"/>
       <c r="B533" s="14"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="12"/>
       <c r="B534" s="14"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="12"/>
       <c r="B535" s="14"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="12"/>
       <c r="B536" s="14"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="12"/>
       <c r="B537" s="14"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="12"/>
       <c r="B538" s="14"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="12"/>
       <c r="B539" s="14"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="12"/>
       <c r="B540" s="14"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="12"/>
       <c r="B541" s="14"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="12"/>
       <c r="B542" s="14"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="12"/>
       <c r="B543" s="14"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="12"/>
       <c r="B544" s="14"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="12"/>
       <c r="B545" s="14"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="12"/>
       <c r="B546" s="14"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="12"/>
       <c r="B547" s="14"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="12"/>
       <c r="B548" s="14"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="12"/>
       <c r="B549" s="14"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="12"/>
       <c r="B550" s="14"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="12"/>
       <c r="B551" s="14"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="12"/>
       <c r="B552" s="14"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="12"/>
       <c r="B553" s="14"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="12"/>
       <c r="B554" s="14"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="12"/>
       <c r="B555" s="14"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="12"/>
       <c r="B556" s="14"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="12"/>
       <c r="B557" s="14"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="12"/>
       <c r="B558" s="14"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="12"/>
       <c r="B559" s="14"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="12"/>
       <c r="B560" s="14"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="12"/>
       <c r="B561" s="14"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="12"/>
       <c r="B562" s="14"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="12"/>
       <c r="B563" s="14"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="12"/>
       <c r="B564" s="14"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="12"/>
       <c r="B565" s="14"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="12"/>
       <c r="B566" s="14"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="12"/>
       <c r="B567" s="14"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="12"/>
       <c r="B568" s="14"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="12"/>
       <c r="B569" s="14"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="12"/>
       <c r="B570" s="14"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="12"/>
       <c r="B571" s="14"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="12"/>
       <c r="B572" s="14"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="12"/>
       <c r="B573" s="14"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="12"/>
       <c r="B574" s="14"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="12"/>
       <c r="B575" s="14"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="12"/>
       <c r="B576" s="14"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="12"/>
       <c r="B577" s="14"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="12"/>
       <c r="B578" s="14"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="12"/>
       <c r="B579" s="14"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="12"/>
       <c r="B580" s="14"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="12"/>
       <c r="B581" s="14"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="12"/>
       <c r="B582" s="14"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="12"/>
       <c r="B583" s="14"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="12"/>
       <c r="B584" s="14"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="12"/>
       <c r="B585" s="14"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="12"/>
       <c r="B586" s="14"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="12"/>
       <c r="B587" s="14"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="12"/>
       <c r="B588" s="14"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="12"/>
       <c r="B589" s="14"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="12"/>
       <c r="B590" s="14"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="12"/>
       <c r="B591" s="14"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="12"/>
       <c r="B592" s="14"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="12"/>
       <c r="B593" s="14"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="12"/>
       <c r="B594" s="14"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="12"/>
       <c r="B595" s="14"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="12"/>
       <c r="B596" s="14"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="12"/>
       <c r="B597" s="14"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="12"/>
       <c r="B598" s="14"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="12"/>
       <c r="B599" s="14"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="12"/>
       <c r="B600" s="14"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="12"/>
       <c r="B601" s="14"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="12"/>
       <c r="B602" s="14"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="12"/>
       <c r="B603" s="14"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="12"/>
       <c r="B604" s="14"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="12"/>
       <c r="B605" s="14"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="12"/>
       <c r="B606" s="14"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="12"/>
       <c r="B607" s="14"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="12"/>
       <c r="B608" s="14"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="12"/>
       <c r="B609" s="14"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="12"/>
       <c r="B610" s="14"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="12"/>
       <c r="B611" s="14"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="12"/>
       <c r="B612" s="14"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="12"/>
       <c r="B613" s="14"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="12"/>
       <c r="B614" s="14"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="12"/>
       <c r="B615" s="14"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="12"/>
       <c r="B616" s="14"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="12"/>
       <c r="B617" s="14"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="12"/>
       <c r="B618" s="14"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="12"/>
       <c r="B619" s="14"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="12"/>
       <c r="B620" s="14"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="12"/>
       <c r="B621" s="14"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="12"/>
       <c r="B622" s="14"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="12"/>
       <c r="B623" s="14"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="12"/>
       <c r="B624" s="14"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="12"/>
       <c r="B625" s="14"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="12"/>
       <c r="B626" s="14"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="12"/>
       <c r="B627" s="14"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="12"/>
       <c r="B628" s="14"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="12"/>
       <c r="B629" s="14"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="12"/>
       <c r="B630" s="14"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="12"/>
       <c r="B631" s="14"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="12"/>
       <c r="B632" s="14"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="12"/>
       <c r="B633" s="14"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="12"/>
       <c r="B634" s="14"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="12"/>
       <c r="B635" s="14"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="12"/>
       <c r="B636" s="14"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="12"/>
       <c r="B637" s="14"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="12"/>
       <c r="B638" s="14"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="12"/>
       <c r="B639" s="14"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="12"/>
       <c r="B640" s="14"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="12"/>
       <c r="B641" s="14"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="12"/>
       <c r="B642" s="14"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="12"/>
       <c r="B643" s="14"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="12"/>
       <c r="B644" s="14"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="12"/>
       <c r="B645" s="14"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="12"/>
       <c r="B646" s="14"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="12"/>
       <c r="B647" s="14"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="12"/>
       <c r="B648" s="14"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="12"/>
       <c r="B649" s="14"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="12"/>
       <c r="B650" s="14"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="12"/>
       <c r="B651" s="14"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="12"/>
       <c r="B652" s="14"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="12"/>
       <c r="B653" s="14"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="12"/>
       <c r="B654" s="14"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="12"/>
       <c r="B655" s="14"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="12"/>
       <c r="B656" s="14"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="12"/>
       <c r="B657" s="14"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="12"/>
       <c r="B658" s="14"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="12"/>
       <c r="B659" s="14"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="12"/>
       <c r="B660" s="14"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="12"/>
       <c r="B661" s="14"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="12"/>
       <c r="B662" s="14"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="12"/>
       <c r="B663" s="14"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="12"/>
       <c r="B664" s="14"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="12"/>
       <c r="B665" s="14"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="12"/>
       <c r="B666" s="14"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="12"/>
       <c r="B667" s="14"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="12"/>
       <c r="B668" s="14"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="12"/>
       <c r="B669" s="14"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="12"/>
       <c r="B670" s="14"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="12"/>
       <c r="B671" s="14"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="12"/>
       <c r="B672" s="14"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="12"/>
       <c r="B673" s="14"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="12"/>
       <c r="B674" s="14"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="12"/>
       <c r="B675" s="14"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="12"/>
       <c r="B676" s="14"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="12"/>
       <c r="B677" s="14"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="12"/>
       <c r="B678" s="14"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="12"/>
       <c r="B679" s="14"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="12"/>
       <c r="B680" s="14"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="12"/>
       <c r="B681" s="14"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="12"/>
       <c r="B682" s="14"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="12"/>
       <c r="B683" s="14"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="12"/>
       <c r="B684" s="14"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="12"/>
       <c r="B685" s="14"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="12"/>
       <c r="B686" s="14"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="12"/>
       <c r="B687" s="14"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="12"/>
       <c r="B688" s="14"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="12"/>
       <c r="B689" s="14"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="12"/>
       <c r="B690" s="14"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="12"/>
       <c r="B691" s="14"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="12"/>
       <c r="B692" s="14"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="12"/>
       <c r="B693" s="14"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="12"/>
       <c r="B694" s="14"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="12"/>
       <c r="B695" s="14"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="12"/>
       <c r="B696" s="14"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="12"/>
       <c r="B697" s="14"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="12"/>
       <c r="B698" s="14"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="12"/>
       <c r="B699" s="14"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="12"/>
       <c r="B700" s="14"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="12"/>
       <c r="B701" s="14"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="12"/>
       <c r="B702" s="14"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="12"/>
       <c r="B703" s="14"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="12"/>
       <c r="B704" s="14"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="12"/>
       <c r="B705" s="14"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="12"/>
       <c r="B706" s="14"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="12"/>
       <c r="B707" s="14"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="12"/>
       <c r="B708" s="14"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="12"/>
       <c r="B709" s="14"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="12"/>
       <c r="B710" s="14"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="12"/>
       <c r="B711" s="14"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="12"/>
       <c r="B712" s="14"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="12"/>
       <c r="B713" s="14"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="12"/>
       <c r="B714" s="14"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="12"/>
       <c r="B715" s="14"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="12"/>
       <c r="B716" s="14"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="12"/>
       <c r="B717" s="14"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="12"/>
       <c r="B718" s="14"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="12"/>
       <c r="B719" s="14"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="12"/>
       <c r="B720" s="14"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="12"/>
       <c r="B721" s="14"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="12"/>
       <c r="B722" s="14"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="12"/>
       <c r="B723" s="14"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="12"/>
       <c r="B724" s="14"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="12"/>
       <c r="B725" s="14"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="12"/>
       <c r="B726" s="14"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="12"/>
       <c r="B727" s="14"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="12"/>
       <c r="B728" s="14"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="12"/>
       <c r="B729" s="14"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="12"/>
       <c r="B730" s="14"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="12"/>
       <c r="B731" s="14"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="12"/>
       <c r="B732" s="14"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="12"/>
       <c r="B733" s="14"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="12"/>
       <c r="B734" s="14"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="12"/>
       <c r="B735" s="14"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="12"/>
       <c r="B736" s="14"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="12"/>
       <c r="B737" s="14"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="12"/>
       <c r="B738" s="14"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="12"/>
       <c r="B739" s="14"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="12"/>
       <c r="B740" s="14"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="12"/>
       <c r="B741" s="14"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="12"/>
       <c r="B742" s="14"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="12"/>
       <c r="B743" s="14"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="12"/>
       <c r="B744" s="14"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="12"/>
       <c r="B745" s="14"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="12"/>
       <c r="B746" s="14"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="12"/>
       <c r="B747" s="14"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="12"/>
       <c r="B748" s="14"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="12"/>
       <c r="B749" s="14"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="12"/>
       <c r="B750" s="14"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="12"/>
       <c r="B751" s="14"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A752" s="12"/>
       <c r="B752" s="14"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A753" s="12"/>
       <c r="B753" s="14"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A754" s="12"/>
       <c r="B754" s="14"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A755" s="12"/>
       <c r="B755" s="14"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A756" s="12"/>
       <c r="B756" s="14"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A757" s="12"/>
       <c r="B757" s="14"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A758" s="12"/>
       <c r="B758" s="14"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A759" s="12"/>
       <c r="B759" s="14"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A760" s="12"/>
       <c r="B760" s="14"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A761" s="12"/>
       <c r="B761" s="14"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A762" s="12"/>
       <c r="B762" s="14"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A763" s="12"/>
       <c r="B763" s="14"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A764" s="12"/>
       <c r="B764" s="14"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A765" s="12"/>
       <c r="B765" s="14"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A766" s="12"/>
       <c r="B766" s="14"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A767" s="12"/>
       <c r="B767" s="14"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A768" s="12"/>
       <c r="B768" s="14"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A769" s="12"/>
       <c r="B769" s="14"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A770" s="12"/>
       <c r="B770" s="14"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A771" s="12"/>
       <c r="B771" s="14"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A772" s="12"/>
       <c r="B772" s="14"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A773" s="12"/>
       <c r="B773" s="14"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A774" s="12"/>
       <c r="B774" s="14"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A775" s="12"/>
       <c r="B775" s="14"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A776" s="12"/>
       <c r="B776" s="14"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A777" s="12"/>
       <c r="B777" s="14"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A778" s="12"/>
       <c r="B778" s="14"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A779" s="12"/>
       <c r="B779" s="14"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A780" s="12"/>
       <c r="B780" s="14"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A781" s="12"/>
       <c r="B781" s="14"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A782" s="12"/>
       <c r="B782" s="14"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A783" s="12"/>
       <c r="B783" s="14"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A784" s="12"/>
       <c r="B784" s="14"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A785" s="12"/>
       <c r="B785" s="14"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A786" s="12"/>
       <c r="B786" s="14"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A787" s="12"/>
       <c r="B787" s="14"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A788" s="12"/>
       <c r="B788" s="14"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A789" s="12"/>
       <c r="B789" s="14"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A790" s="12"/>
       <c r="B790" s="14"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A791" s="12"/>
       <c r="B791" s="14"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A792" s="12"/>
       <c r="B792" s="14"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A793" s="12"/>
       <c r="B793" s="14"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A794" s="12"/>
       <c r="B794" s="14"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A795" s="12"/>
       <c r="B795" s="14"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A796" s="12"/>
       <c r="B796" s="14"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A797" s="12"/>
       <c r="B797" s="14"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A798" s="12"/>
       <c r="B798" s="14"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A799" s="12"/>
       <c r="B799" s="14"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A800" s="12"/>
       <c r="B800" s="14"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A801" s="12"/>
       <c r="B801" s="14"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A802" s="12"/>
       <c r="B802" s="14"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A803" s="12"/>
       <c r="B803" s="14"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A804" s="12"/>
       <c r="B804" s="14"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A805" s="12"/>
       <c r="B805" s="14"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A806" s="12"/>
       <c r="B806" s="14"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A807" s="12"/>
       <c r="B807" s="14"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A808" s="12"/>
       <c r="B808" s="14"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A809" s="12"/>
       <c r="B809" s="14"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A810" s="12"/>
       <c r="B810" s="14"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A811" s="12"/>
       <c r="B811" s="14"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A812" s="12"/>
       <c r="B812" s="14"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A813" s="12"/>
       <c r="B813" s="14"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A814" s="12"/>
       <c r="B814" s="14"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A815" s="12"/>
       <c r="B815" s="14"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A816" s="12"/>
       <c r="B816" s="14"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A817" s="12"/>
       <c r="B817" s="14"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A818" s="12"/>
       <c r="B818" s="14"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A819" s="12"/>
       <c r="B819" s="14"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A820" s="12"/>
       <c r="B820" s="14"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A821" s="12"/>
       <c r="B821" s="14"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A822" s="12"/>
       <c r="B822" s="14"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A823" s="12"/>
       <c r="B823" s="14"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A824" s="12"/>
       <c r="B824" s="14"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A825" s="12"/>
       <c r="B825" s="14"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A826" s="12"/>
       <c r="B826" s="14"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A827" s="12"/>
       <c r="B827" s="14"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A828" s="12"/>
       <c r="B828" s="14"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A829" s="12"/>
       <c r="B829" s="14"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A830" s="12"/>
       <c r="B830" s="14"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A831" s="12"/>
       <c r="B831" s="14"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A832" s="12"/>
       <c r="B832" s="14"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A833" s="12"/>
       <c r="B833" s="14"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A834" s="12"/>
       <c r="B834" s="14"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A835" s="12"/>
       <c r="B835" s="14"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A836" s="12"/>
       <c r="B836" s="14"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A837" s="12"/>
       <c r="B837" s="14"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A838" s="12"/>
       <c r="B838" s="14"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A839" s="12"/>
       <c r="B839" s="14"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A840" s="12"/>
       <c r="B840" s="14"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A841" s="12"/>
       <c r="B841" s="14"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A842" s="12"/>
       <c r="B842" s="14"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A843" s="12"/>
       <c r="B843" s="14"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A844" s="12"/>
       <c r="B844" s="14"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A845" s="12"/>
       <c r="B845" s="14"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A846" s="12"/>
       <c r="B846" s="14"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A847" s="12"/>
       <c r="B847" s="14"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A848" s="12"/>
       <c r="B848" s="14"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A849" s="12"/>
       <c r="B849" s="14"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A850" s="12"/>
       <c r="B850" s="14"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A851" s="12"/>
       <c r="B851" s="14"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A852" s="12"/>
       <c r="B852" s="14"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A853" s="12"/>
       <c r="B853" s="14"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A854" s="12"/>
       <c r="B854" s="14"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A855" s="12"/>
       <c r="B855" s="14"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A856" s="12"/>
       <c r="B856" s="14"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A857" s="12"/>
       <c r="B857" s="14"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A858" s="12"/>
       <c r="B858" s="14"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A859" s="12"/>
       <c r="B859" s="14"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A860" s="12"/>
       <c r="B860" s="14"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A861" s="12"/>
       <c r="B861" s="14"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A862" s="12"/>
       <c r="B862" s="14"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A863" s="12"/>
       <c r="B863" s="14"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A864" s="12"/>
       <c r="B864" s="14"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A865" s="12"/>
       <c r="B865" s="14"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A866" s="12"/>
       <c r="B866" s="14"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A867" s="12"/>
       <c r="B867" s="14"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A868" s="12"/>
       <c r="B868" s="14"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A869" s="12"/>
       <c r="B869" s="14"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A870" s="12"/>
       <c r="B870" s="14"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A871" s="12"/>
       <c r="B871" s="14"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A872" s="12"/>
       <c r="B872" s="14"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A873" s="12"/>
       <c r="B873" s="14"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A874" s="12"/>
       <c r="B874" s="14"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A875" s="12"/>
       <c r="B875" s="14"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A876" s="12"/>
       <c r="B876" s="14"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A877" s="12"/>
       <c r="B877" s="14"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A878" s="12"/>
       <c r="B878" s="14"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A879" s="12"/>
       <c r="B879" s="14"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A880" s="12"/>
       <c r="B880" s="14"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A881" s="12"/>
       <c r="B881" s="14"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A882" s="12"/>
       <c r="B882" s="14"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A883" s="12"/>
       <c r="B883" s="14"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A884" s="12"/>
       <c r="B884" s="14"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A885" s="12"/>
       <c r="B885" s="14"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A886" s="12"/>
       <c r="B886" s="14"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A887" s="12"/>
       <c r="B887" s="14"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A888" s="12"/>
       <c r="B888" s="14"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A889" s="12"/>
       <c r="B889" s="14"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A890" s="12"/>
       <c r="B890" s="14"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A891" s="12"/>
       <c r="B891" s="14"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A892" s="12"/>
       <c r="B892" s="14"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A893" s="12"/>
       <c r="B893" s="14"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A894" s="12"/>
       <c r="B894" s="14"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A895" s="12"/>
       <c r="B895" s="14"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A896" s="12"/>
       <c r="B896" s="14"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A897" s="12"/>
       <c r="B897" s="14"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A898" s="12"/>
       <c r="B898" s="14"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A899" s="12"/>
       <c r="B899" s="14"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A900" s="12"/>
       <c r="B900" s="14"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A901" s="12"/>
       <c r="B901" s="14"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A902" s="12"/>
       <c r="B902" s="14"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A903" s="12"/>
       <c r="B903" s="14"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A904" s="12"/>
       <c r="B904" s="14"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A905" s="12"/>
       <c r="B905" s="14"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A906" s="12"/>
       <c r="B906" s="14"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A907" s="12"/>
       <c r="B907" s="14"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A908" s="12"/>
       <c r="B908" s="14"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A909" s="12"/>
       <c r="B909" s="14"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A910" s="12"/>
       <c r="B910" s="14"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A911" s="12"/>
       <c r="B911" s="14"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A912" s="12"/>
       <c r="B912" s="14"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A913" s="12"/>
       <c r="B913" s="14"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A914" s="12"/>
       <c r="B914" s="14"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A915" s="12"/>
       <c r="B915" s="14"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A916" s="12"/>
       <c r="B916" s="14"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A917" s="12"/>
       <c r="B917" s="14"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A918" s="12"/>
       <c r="B918" s="14"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A919" s="12"/>
       <c r="B919" s="14"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A920" s="12"/>
       <c r="B920" s="14"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A921" s="12"/>
       <c r="B921" s="14"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A922" s="12"/>
       <c r="B922" s="14"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A923" s="12"/>
       <c r="B923" s="14"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A924" s="12"/>
       <c r="B924" s="14"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A925" s="12"/>
       <c r="B925" s="14"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A926" s="12"/>
       <c r="B926" s="14"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A927" s="12"/>
       <c r="B927" s="14"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A928" s="12"/>
       <c r="B928" s="14"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A929" s="12"/>
       <c r="B929" s="14"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A930" s="12"/>
       <c r="B930" s="14"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A931" s="12"/>
       <c r="B931" s="14"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A932" s="12"/>
       <c r="B932" s="14"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A933" s="12"/>
       <c r="B933" s="14"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A934" s="12"/>
       <c r="B934" s="14"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A935" s="12"/>
       <c r="B935" s="14"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A936" s="12"/>
       <c r="B936" s="14"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A937" s="12"/>
       <c r="B937" s="14"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A938" s="12"/>
       <c r="B938" s="14"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A939" s="12"/>
       <c r="B939" s="14"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A940" s="12"/>
       <c r="B940" s="14"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A941" s="12"/>
       <c r="B941" s="14"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A942" s="12"/>
       <c r="B942" s="14"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A943" s="12"/>
       <c r="B943" s="14"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A944" s="12"/>
       <c r="B944" s="14"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A945" s="12"/>
       <c r="B945" s="14"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A946" s="12"/>
       <c r="B946" s="14"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A947" s="12"/>
       <c r="B947" s="14"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A948" s="12"/>
       <c r="B948" s="14"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A949" s="12"/>
       <c r="B949" s="14"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A950" s="12"/>
       <c r="B950" s="14"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A951" s="12"/>
       <c r="B951" s="14"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A952" s="12"/>
       <c r="B952" s="14"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A953" s="12"/>
       <c r="B953" s="14"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A954" s="12"/>
       <c r="B954" s="14"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A955" s="12"/>
       <c r="B955" s="14"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A956" s="12"/>
       <c r="B956" s="14"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A957" s="12"/>
       <c r="B957" s="14"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A958" s="12"/>
       <c r="B958" s="14"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A959" s="12"/>
       <c r="B959" s="14"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A960" s="12"/>
       <c r="B960" s="14"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A961" s="12"/>
       <c r="B961" s="14"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A962" s="12"/>
       <c r="B962" s="14"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A963" s="12"/>
       <c r="B963" s="14"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A964" s="12"/>
       <c r="B964" s="14"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A965" s="12"/>
       <c r="B965" s="14"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A966" s="12"/>
       <c r="B966" s="14"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A967" s="12"/>
       <c r="B967" s="14"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A968" s="12"/>
       <c r="B968" s="14"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A969" s="12"/>
       <c r="B969" s="14"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A970" s="12"/>
       <c r="B970" s="14"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A971" s="12"/>
       <c r="B971" s="14"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A972" s="12"/>
       <c r="B972" s="14"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A973" s="12"/>
       <c r="B973" s="14"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A974" s="12"/>
       <c r="B974" s="14"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A975" s="12"/>
       <c r="B975" s="14"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A976" s="12"/>
       <c r="B976" s="14"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A977" s="12"/>
       <c r="B977" s="14"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A978" s="12"/>
       <c r="B978" s="14"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A979" s="12"/>
       <c r="B979" s="14"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A980" s="12"/>
       <c r="B980" s="14"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A981" s="12"/>
       <c r="B981" s="14"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A982" s="12"/>
       <c r="B982" s="14"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A983" s="12"/>
       <c r="B983" s="14"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A984" s="12"/>
       <c r="B984" s="14"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A985" s="12"/>
       <c r="B985" s="14"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A986" s="12"/>
       <c r="B986" s="14"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A987" s="12"/>
       <c r="B987" s="14"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A988" s="12"/>
       <c r="B988" s="14"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A989" s="12"/>
       <c r="B989" s="14"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A990" s="12"/>
       <c r="B990" s="14"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A991" s="12"/>
       <c r="B991" s="14"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A992" s="12"/>
       <c r="B992" s="14"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A993" s="12"/>
       <c r="B993" s="14"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A994" s="12"/>
       <c r="B994" s="14"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A995" s="12"/>
       <c r="B995" s="14"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A996" s="12"/>
       <c r="B996" s="14"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A997" s="12"/>
       <c r="B997" s="14"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A998" s="12"/>
       <c r="B998" s="14"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A999" s="12"/>
       <c r="B999" s="14"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1000" s="12"/>
       <c r="B1000" s="14"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1001" s="12"/>
       <c r="B1001" s="14"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1002" s="12"/>
       <c r="B1002" s="14"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1003" s="12"/>
       <c r="B1003" s="14"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.14"/>
-    <col customWidth="1" min="2" max="2" width="61.71"/>
-    <col customWidth="1" min="3" max="3" width="16.43"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="18.0"/>
-    <col customWidth="1" min="6" max="6" width="20.86"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -6429,9 +6449,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="18">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
         <v>6</v>
@@ -6440,18 +6460,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="20">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="E2" s="20">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="F2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>20</v>
@@ -6460,18 +6480,18 @@
         <v>21</v>
       </c>
       <c r="D3" s="24">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E3" s="24">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="26" t="s">
         <v>30</v>
@@ -6480,18 +6500,18 @@
         <v>21</v>
       </c>
       <c r="D4" s="28">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E4" s="28">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F4" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="18">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="26" t="s">
         <v>44</v>
@@ -6500,18 +6520,18 @@
         <v>21</v>
       </c>
       <c r="D5" s="28">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E5" s="28">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="26" t="s">
         <v>51</v>
@@ -6520,18 +6540,18 @@
         <v>21</v>
       </c>
       <c r="D6" s="28">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E6" s="28">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F6" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="26" t="s">
         <v>55</v>
@@ -6540,18 +6560,18 @@
         <v>56</v>
       </c>
       <c r="D7" s="28">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E7" s="28">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F7" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="18">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="26" t="s">
         <v>64</v>
@@ -6560,18 +6580,18 @@
         <v>56</v>
       </c>
       <c r="D8" s="28">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E8" s="28">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F8" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="26" t="s">
         <v>70</v>
@@ -6580,18 +6600,18 @@
         <v>56</v>
       </c>
       <c r="D9" s="28">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E9" s="29">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F9" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="26" t="s">
         <v>77</v>
@@ -6600,18 +6620,18 @@
         <v>21</v>
       </c>
       <c r="D10" s="29">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E10" s="29">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F10" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="18">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
         <v>82</v>
@@ -6620,18 +6640,18 @@
         <v>21</v>
       </c>
       <c r="D11" s="29">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E11" s="29">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F11" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="21">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="26" t="s">
         <v>90</v>
@@ -6640,18 +6660,18 @@
         <v>21</v>
       </c>
       <c r="D12" s="29">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E12" s="29">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="26" t="s">
         <v>93</v>
@@ -6660,18 +6680,18 @@
         <v>56</v>
       </c>
       <c r="D13" s="29">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E13" s="29">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F13" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="18">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="26" t="s">
         <v>96</v>
@@ -6680,18 +6700,18 @@
         <v>56</v>
       </c>
       <c r="D14" s="29">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E14" s="28">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F14" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
         <v>101</v>
@@ -6700,18 +6720,18 @@
         <v>21</v>
       </c>
       <c r="D15" s="29">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E15" s="28">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F15" s="27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="26" t="s">
         <v>107</v>
@@ -6720,35 +6740,36 @@
         <v>21</v>
       </c>
       <c r="D16" s="29">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E16" s="28">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F16" s="27" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.57"/>
-    <col customWidth="1" min="2" max="2" width="59.43"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="59.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -6768,9 +6789,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>9</v>
@@ -6779,18 +6800,18 @@
         <v>10</v>
       </c>
       <c r="D2" s="37">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="E2" s="37">
-        <v>44505.0</v>
+        <v>44505</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
-        <f t="shared" ref="A3:A16" si="1">A2+1</f>
+        <f t="shared" ref="A3:A16" si="0">A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -6800,18 +6821,18 @@
         <v>10</v>
       </c>
       <c r="D3" s="38">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E3" s="38">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -6821,18 +6842,18 @@
         <v>10</v>
       </c>
       <c r="D4" s="38">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E4" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -6842,18 +6863,18 @@
         <v>10</v>
       </c>
       <c r="D5" s="38">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E5" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -6863,18 +6884,18 @@
         <v>10</v>
       </c>
       <c r="D6" s="38">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E6" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -6884,18 +6905,18 @@
         <v>10</v>
       </c>
       <c r="D7" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E7" s="38">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -6905,18 +6926,18 @@
         <v>10</v>
       </c>
       <c r="D8" s="38">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E8" s="38">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -6926,18 +6947,18 @@
         <v>10</v>
       </c>
       <c r="D9" s="38">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E9" s="37">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -6947,18 +6968,18 @@
         <v>10</v>
       </c>
       <c r="D10" s="37">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E10" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -6968,18 +6989,18 @@
         <v>10</v>
       </c>
       <c r="D11" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E11" s="37">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -6989,18 +7010,18 @@
         <v>10</v>
       </c>
       <c r="D12" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E12" s="37">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -7010,18 +7031,18 @@
         <v>10</v>
       </c>
       <c r="D13" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E13" s="37">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7031,18 +7052,18 @@
         <v>10</v>
       </c>
       <c r="D14" s="37">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E14" s="38">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -7052,18 +7073,18 @@
         <v>10</v>
       </c>
       <c r="D15" s="37">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E15" s="38">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -7073,36 +7094,39 @@
         <v>10</v>
       </c>
       <c r="D16" s="37">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E16" s="38">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="5.86"/>
-    <col customWidth="1" min="2" max="2" width="72.71"/>
-    <col customWidth="1" min="3" max="3" width="18.57"/>
+    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -7122,9 +7146,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>6</v>
@@ -7133,18 +7157,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="37">
-        <v>44501.0</v>
+        <v>44501</v>
       </c>
       <c r="E2" s="37">
-        <v>44503.0</v>
+        <v>44503</v>
       </c>
       <c r="F2" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35">
-        <f t="shared" ref="A3:A18" si="1">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
@@ -7154,18 +7178,18 @@
         <v>19</v>
       </c>
       <c r="D3" s="38">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E3" s="38">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F3" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -7175,18 +7199,18 @@
         <v>19</v>
       </c>
       <c r="D4" s="38">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E4" s="38">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F4" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
@@ -7196,18 +7220,18 @@
         <v>19</v>
       </c>
       <c r="D5" s="38">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E5" s="38">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F5" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
@@ -7217,18 +7241,18 @@
         <v>19</v>
       </c>
       <c r="D6" s="38">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E6" s="38">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F6" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
@@ -7238,18 +7262,18 @@
         <v>19</v>
       </c>
       <c r="D7" s="38">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E7" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F7" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
@@ -7259,18 +7283,18 @@
         <v>19</v>
       </c>
       <c r="D8" s="38">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E8" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F8" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
@@ -7280,18 +7304,18 @@
         <v>19</v>
       </c>
       <c r="D9" s="38">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E9" s="38">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F9" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
@@ -7301,18 +7325,18 @@
         <v>19</v>
       </c>
       <c r="D10" s="38">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E10" s="37">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F10" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="36" t="s">
@@ -7322,18 +7346,18 @@
         <v>19</v>
       </c>
       <c r="D11" s="38">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E11" s="37">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F11" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -7343,18 +7367,18 @@
         <v>19</v>
       </c>
       <c r="D12" s="37">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E12" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F12" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="36" t="s">
@@ -7364,18 +7388,18 @@
         <v>19</v>
       </c>
       <c r="D13" s="37">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E13" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F13" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="36" t="s">
@@ -7385,18 +7409,18 @@
         <v>19</v>
       </c>
       <c r="D14" s="37">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E14" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F14" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="36" t="s">
@@ -7406,18 +7430,18 @@
         <v>19</v>
       </c>
       <c r="D15" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E15" s="37">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F15" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
@@ -7427,74 +7451,54 @@
         <v>19</v>
       </c>
       <c r="D16" s="37">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E16" s="37">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F16" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="37">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E17" s="38">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F17" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="35">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="37">
-        <v>44536.0</v>
-      </c>
-      <c r="E18" s="38">
-        <v>44538.0</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="11"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="11"/>
       <c r="B19" s="43"/>
       <c r="C19" s="11"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
       <c r="F19" s="11"/>
     </row>
-    <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="11"/>
-    </row>
-    <row r="21">
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="43"/>
       <c r="C21" s="11"/>
@@ -7502,7 +7506,7 @@
       <c r="E21" s="45"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="43"/>
       <c r="C22" s="11"/>
@@ -7510,7 +7514,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="43"/>
       <c r="C23" s="11"/>
@@ -7518,7 +7522,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="43"/>
       <c r="C24" s="11"/>
@@ -7526,7 +7530,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="43"/>
       <c r="C25" s="11"/>
@@ -7534,7 +7538,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="43"/>
       <c r="C26" s="11"/>
@@ -7542,7 +7546,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="43"/>
       <c r="C27" s="11"/>
@@ -7550,7 +7554,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="43"/>
       <c r="C28" s="11"/>
@@ -7558,7 +7562,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="43"/>
       <c r="C29" s="11"/>
@@ -7566,7 +7570,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="43"/>
       <c r="C30" s="11"/>
@@ -7574,7 +7578,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="43"/>
       <c r="C31" s="11"/>
@@ -7582,7 +7586,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="43"/>
       <c r="C32" s="11"/>
@@ -7590,7 +7594,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="43"/>
       <c r="C33" s="11"/>
@@ -7598,7 +7602,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="43"/>
       <c r="C34" s="11"/>
@@ -7606,7 +7610,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="43"/>
       <c r="C35" s="11"/>
@@ -7614,7 +7618,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="43"/>
       <c r="C36" s="11"/>
@@ -7622,7 +7626,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="43"/>
       <c r="C37" s="11"/>
@@ -7631,29 +7635,32 @@
       <c r="F37" s="11"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.71"/>
-    <col customWidth="1" min="2" max="2" width="75.43"/>
-    <col customWidth="1" min="3" max="3" width="21.29"/>
-    <col customWidth="1" min="4" max="4" width="23.43"/>
-    <col customWidth="1" min="5" max="5" width="20.29"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7673,9 +7680,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>24</v>
@@ -7684,18 +7691,19 @@
         <v>25</v>
       </c>
       <c r="D2" s="49">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E2" s="49">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
-        <v>2.0</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="48" t="s">
         <v>31</v>
@@ -7704,18 +7712,19 @@
         <v>32</v>
       </c>
       <c r="D3" s="49">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E3" s="49">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A4" s="21">
-        <v>3.0</v>
+        <f t="shared" ref="A4:A16" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="48" t="s">
         <v>33</v>
@@ -7724,18 +7733,19 @@
         <v>32</v>
       </c>
       <c r="D4" s="49">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E4" s="49">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F4" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A5" s="21">
-        <v>4.0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="48" t="s">
         <v>36</v>
@@ -7744,18 +7754,19 @@
         <v>25</v>
       </c>
       <c r="D5" s="49">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E5" s="49">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F5" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="21">
-        <v>5.0</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="48" t="s">
         <v>41</v>
@@ -7764,18 +7775,19 @@
         <v>25</v>
       </c>
       <c r="D6" s="49">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E6" s="49">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F6" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A7" s="21">
-        <v>6.0</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>42</v>
@@ -7784,18 +7796,19 @@
         <v>32</v>
       </c>
       <c r="D7" s="49">
-        <v>44515.0</v>
+        <v>44515</v>
       </c>
       <c r="E7" s="49">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="F7" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
-        <v>7.0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>49</v>
@@ -7804,18 +7817,19 @@
         <v>32</v>
       </c>
       <c r="D8" s="49">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E8" s="49">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F8" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
-        <v>8.0</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="48" t="s">
         <v>54</v>
@@ -7824,18 +7838,19 @@
         <v>32</v>
       </c>
       <c r="D9" s="49">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E9" s="49">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F9" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
-        <v>9.0</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="48" t="s">
         <v>59</v>
@@ -7844,18 +7859,19 @@
         <v>32</v>
       </c>
       <c r="D10" s="49">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E10" s="49">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F10" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A11" s="21">
-        <v>10.0</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="48" t="s">
         <v>67</v>
@@ -7864,119 +7880,146 @@
         <v>25</v>
       </c>
       <c r="D11" s="49">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E11" s="50">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="21">
-        <v>11.0</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>74</v>
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>81</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="50">
-        <v>44529.0</v>
-      </c>
-      <c r="E12" s="50">
-        <v>44531.0</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" s="60">
+        <v>44524</v>
+      </c>
+      <c r="E12" s="61">
+        <v>44526</v>
+      </c>
+      <c r="F12" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A13" s="21">
-        <v>12.0</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="50">
+        <v>44529</v>
+      </c>
+      <c r="E13" s="50">
+        <v>44531</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="21">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>86</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="50">
-        <v>44531.0</v>
-      </c>
-      <c r="E13" s="50">
-        <v>44533.0</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="21">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>92</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="50">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E14" s="50">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F14" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
-        <v>14.0</v>
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="50">
+        <v>44531</v>
+      </c>
+      <c r="E15" s="50">
+        <v>44533</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="21">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C16" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="50">
-        <v>44536.0</v>
-      </c>
-      <c r="E15" s="49">
-        <v>44538.0</v>
-      </c>
-      <c r="F15" s="21" t="s">
+      <c r="D16" s="50">
+        <v>44536</v>
+      </c>
+      <c r="E16" s="49">
+        <v>44538</v>
+      </c>
+      <c r="F16" s="21" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="49.0"/>
-    <col customWidth="1" min="3" max="3" width="22.43"/>
-    <col customWidth="1" min="4" max="4" width="24.0"/>
-    <col customWidth="1" min="5" max="5" width="22.14"/>
-    <col customWidth="1" min="6" max="6" width="22.71"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="24" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
@@ -7996,9 +8039,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="53">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>11</v>
@@ -8007,18 +8050,18 @@
         <v>12</v>
       </c>
       <c r="D2" s="55">
-        <v>44508.0</v>
+        <v>44508</v>
       </c>
       <c r="E2" s="56">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="F2" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="53">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
         <v>13</v>
@@ -8027,18 +8070,18 @@
         <v>14</v>
       </c>
       <c r="D3" s="56">
-        <v>44508.0</v>
+        <v>44508</v>
       </c>
       <c r="E3" s="56">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="F3" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="53">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="53" t="s">
         <v>26</v>
@@ -8047,18 +8090,18 @@
         <v>12</v>
       </c>
       <c r="D4" s="56">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E4" s="56">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F4" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="53">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="53" t="s">
         <v>47</v>
@@ -8067,18 +8110,18 @@
         <v>14</v>
       </c>
       <c r="D5" s="56">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E5" s="56">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="53">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="53" t="s">
         <v>48</v>
@@ -8087,18 +8130,18 @@
         <v>14</v>
       </c>
       <c r="D6" s="56">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E6" s="56">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="53">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="53" t="s">
         <v>53</v>
@@ -8107,18 +8150,18 @@
         <v>14</v>
       </c>
       <c r="D7" s="56">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E7" s="56">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F7" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="53">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="53" t="s">
         <v>60</v>
@@ -8127,18 +8170,18 @@
         <v>14</v>
       </c>
       <c r="D8" s="56">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E8" s="56">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F8" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="53">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="53" t="s">
         <v>61</v>
@@ -8147,18 +8190,18 @@
         <v>12</v>
       </c>
       <c r="D9" s="56">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E9" s="56">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F9" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="53">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="53" t="s">
         <v>62</v>
@@ -8167,18 +8210,18 @@
         <v>14</v>
       </c>
       <c r="D10" s="56">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E10" s="56">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F10" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="53">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="53" t="s">
         <v>73</v>
@@ -8187,18 +8230,18 @@
         <v>12</v>
       </c>
       <c r="D11" s="55">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E11" s="55">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F11" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="53">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="53" t="s">
         <v>79</v>
@@ -8207,18 +8250,18 @@
         <v>12</v>
       </c>
       <c r="D12" s="55">
-        <v>44529.0</v>
+        <v>44529</v>
       </c>
       <c r="E12" s="55">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="F12" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="53">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="53" t="s">
         <v>89</v>
@@ -8227,18 +8270,18 @@
         <v>12</v>
       </c>
       <c r="D13" s="55">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E13" s="55">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F13" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="53">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="53" t="s">
         <v>91</v>
@@ -8247,18 +8290,18 @@
         <v>14</v>
       </c>
       <c r="D14" s="55">
-        <v>44531.0</v>
+        <v>44531</v>
       </c>
       <c r="E14" s="55">
-        <v>44533.0</v>
+        <v>44533</v>
       </c>
       <c r="F14" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="53">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="53" t="s">
         <v>102</v>
@@ -8267,18 +8310,18 @@
         <v>14</v>
       </c>
       <c r="D15" s="55">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E15" s="56">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F15" s="54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="53">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="53" t="s">
         <v>103</v>
@@ -8287,38 +8330,41 @@
         <v>14</v>
       </c>
       <c r="D16" s="55">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E16" s="56">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F16" s="54" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.71"/>
-    <col customWidth="1" min="2" max="2" width="53.29"/>
-    <col customWidth="1" min="3" max="3" width="17.57"/>
-    <col customWidth="1" min="4" max="5" width="16.29"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="4" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -8338,9 +8384,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="58">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="59" t="s">
         <v>15</v>
@@ -8349,18 +8395,18 @@
         <v>16</v>
       </c>
       <c r="D2" s="60">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E2" s="60">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
-        <f t="shared" ref="A3:A16" si="1">A2+1</f>
+        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
@@ -8370,18 +8416,18 @@
         <v>16</v>
       </c>
       <c r="D3" s="60">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E3" s="60">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F3" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A4:A15" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="59" t="s">
@@ -8391,18 +8437,18 @@
         <v>16</v>
       </c>
       <c r="D4" s="60">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E4" s="60">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F4" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -8412,18 +8458,18 @@
         <v>35</v>
       </c>
       <c r="D5" s="60">
-        <v>44510.0</v>
+        <v>44510</v>
       </c>
       <c r="E5" s="60">
-        <v>44512.0</v>
+        <v>44512</v>
       </c>
       <c r="F5" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -8433,18 +8479,18 @@
         <v>16</v>
       </c>
       <c r="D6" s="60">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E6" s="60">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F6" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="59" t="s">
@@ -8454,18 +8500,18 @@
         <v>16</v>
       </c>
       <c r="D7" s="60">
-        <v>44517.0</v>
+        <v>44517</v>
       </c>
       <c r="E7" s="60">
-        <v>44519.0</v>
+        <v>44519</v>
       </c>
       <c r="F7" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="59" t="s">
@@ -8475,18 +8521,18 @@
         <v>16</v>
       </c>
       <c r="D8" s="60">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E8" s="60">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F8" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="59" t="s">
@@ -8496,18 +8542,18 @@
         <v>16</v>
       </c>
       <c r="D9" s="60">
-        <v>44522.0</v>
+        <v>44522</v>
       </c>
       <c r="E9" s="60">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="F9" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="59" t="s">
@@ -8517,142 +8563,142 @@
         <v>16</v>
       </c>
       <c r="D10" s="60">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E10" s="61">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F10" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C11" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="60">
-        <v>44524.0</v>
+        <v>44524</v>
       </c>
       <c r="E11" s="61">
-        <v>44526.0</v>
+        <v>44526</v>
       </c>
       <c r="F11" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="59" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="C12" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="60">
-        <v>44524.0</v>
+      <c r="D12" s="61">
+        <v>44529</v>
       </c>
       <c r="E12" s="61">
-        <v>44526.0</v>
+        <v>44531</v>
       </c>
       <c r="F12" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C13" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="61">
+        <v>44531</v>
+      </c>
+      <c r="E13" s="61">
+        <v>44533</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="58">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="61">
-        <v>44529.0</v>
-      </c>
-      <c r="E13" s="61">
-        <v>44531.0</v>
-      </c>
-      <c r="F13" s="58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="58">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>35</v>
-      </c>
       <c r="D14" s="61">
-        <v>44531.0</v>
-      </c>
-      <c r="E14" s="61">
-        <v>44533.0</v>
+        <v>44536</v>
+      </c>
+      <c r="E14" s="60">
+        <v>44538</v>
       </c>
       <c r="F14" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C15" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D15" s="61">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E15" s="60">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F15" s="58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="58">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>63</v>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="35">
+        <f>Trung!A16+1</f>
+        <v>16</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>95</v>
       </c>
       <c r="C16" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="61">
-        <v>44536.0</v>
+        <v>44536</v>
       </c>
       <c r="E16" s="60">
-        <v>44538.0</v>
+        <v>44538</v>
       </c>
       <c r="F16" s="58" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FarmSys/Document_nhom1/PhanChiaCongViec_Nhom1.xlsx
+++ b/FarmSys/Document_nhom1/PhanChiaCongViec_Nhom1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Netbeans\Github\Duan1\FarmSys\Document_nhom1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AB3086-7DD9-467C-BD87-1B475EA72B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14FFE21F-088B-4478-9F65-894B39E50B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nhóm" sheetId="1" r:id="rId1"/>
@@ -930,7 +930,9 @@
   </sheetPr>
   <dimension ref="A1:F1003"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6416,7 +6418,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6761,7 +6763,9 @@
   </sheetPr>
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7115,8 +7119,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7498,7 +7502,7 @@
       <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="11"/>
       <c r="B21" s="43"/>
       <c r="C21" s="11"/>
@@ -7506,7 +7510,7 @@
       <c r="E21" s="45"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="11"/>
       <c r="B22" s="43"/>
       <c r="C22" s="11"/>
@@ -7514,7 +7518,7 @@
       <c r="E22" s="45"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="11"/>
       <c r="B23" s="43"/>
       <c r="C23" s="11"/>
@@ -7522,7 +7526,7 @@
       <c r="E23" s="45"/>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="11"/>
       <c r="B24" s="43"/>
       <c r="C24" s="11"/>
@@ -7530,7 +7534,7 @@
       <c r="E24" s="45"/>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="11"/>
       <c r="B25" s="43"/>
       <c r="C25" s="11"/>
@@ -7538,7 +7542,7 @@
       <c r="E25" s="45"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="11"/>
       <c r="B26" s="43"/>
       <c r="C26" s="11"/>
@@ -7546,7 +7550,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="11"/>
       <c r="B27" s="43"/>
       <c r="C27" s="11"/>
@@ -7554,7 +7558,7 @@
       <c r="E27" s="45"/>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="11"/>
       <c r="B28" s="43"/>
       <c r="C28" s="11"/>
@@ -7562,7 +7566,7 @@
       <c r="E28" s="45"/>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="11"/>
       <c r="B29" s="43"/>
       <c r="C29" s="11"/>
@@ -7570,7 +7574,7 @@
       <c r="E29" s="44"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="11"/>
       <c r="B30" s="43"/>
       <c r="C30" s="11"/>
@@ -7578,7 +7582,7 @@
       <c r="E30" s="44"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="11"/>
       <c r="B31" s="43"/>
       <c r="C31" s="11"/>
@@ -7586,7 +7590,7 @@
       <c r="E31" s="44"/>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="11"/>
       <c r="B32" s="43"/>
       <c r="C32" s="11"/>
@@ -7594,7 +7598,7 @@
       <c r="E32" s="44"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="11"/>
       <c r="B33" s="43"/>
       <c r="C33" s="11"/>
@@ -7602,7 +7606,7 @@
       <c r="E33" s="44"/>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="11"/>
       <c r="B34" s="43"/>
       <c r="C34" s="11"/>
@@ -7610,7 +7614,7 @@
       <c r="E34" s="44"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="11"/>
       <c r="B35" s="43"/>
       <c r="C35" s="11"/>
@@ -7618,7 +7622,7 @@
       <c r="E35" s="44"/>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="11"/>
       <c r="B36" s="43"/>
       <c r="C36" s="11"/>
@@ -7626,7 +7630,7 @@
       <c r="E36" s="45"/>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="11"/>
       <c r="B37" s="43"/>
       <c r="C37" s="11"/>
@@ -7660,7 +7664,7 @@
     <col min="6" max="6" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7680,7 +7684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -7700,7 +7704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A3" s="21">
         <f>A2+1</f>
         <v>2</v>
